--- a/stats/experimentation.xlsx
+++ b/stats/experimentation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2020 - Projects\Github\AMPL\stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10695" windowHeight="7035" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10695" windowHeight="7035"/>
   </bookViews>
   <sheets>
     <sheet name="2D packing" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="33">
   <si>
     <t>Contenedor</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Esferas</t>
   </si>
   <si>
-    <t>Tolerancia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cilindro </t>
   </si>
   <si>
@@ -108,7 +105,25 @@
     <t>KPIs</t>
   </si>
   <si>
-    <t>Dim.</t>
+    <t>Dim. (r,h)</t>
+  </si>
+  <si>
+    <t>(0.818022, 0.816497)</t>
+  </si>
+  <si>
+    <t>(0.866025, NA)</t>
+  </si>
+  <si>
+    <t>(0.985493, NA)</t>
+  </si>
+  <si>
+    <t>(1.01160749, NA)</t>
+  </si>
+  <si>
+    <t>(1.72409, NA)</t>
+  </si>
+  <si>
+    <t>(1.03092, 0.856305)</t>
   </si>
 </sst>
 </file>
@@ -155,10 +170,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:N31"/>
+  <dimension ref="C1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,77 +471,75 @@
     <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" t="s">
-        <v>13</v>
-      </c>
       <c r="M2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -535,18 +548,33 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>1.99</v>
-      </c>
-      <c r="N3" t="s">
+        <v>1.9938</v>
+      </c>
+      <c r="I3">
+        <v>131</v>
+      </c>
+      <c r="J3">
+        <v>140</v>
+      </c>
+      <c r="K3">
+        <v>22125</v>
+      </c>
+      <c r="L3">
+        <v>3.65</v>
+      </c>
+      <c r="M3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -558,12 +586,15 @@
         <v>2.69</v>
       </c>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
       </c>
       <c r="F5">
         <v>15</v>
@@ -575,12 +606,15 @@
         <v>3.29</v>
       </c>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
       <c r="F6">
         <v>20</v>
@@ -592,12 +626,15 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -606,18 +643,21 @@
         <v>5</v>
       </c>
       <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
+        <v>1.0033399999999999</v>
+      </c>
+      <c r="M7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -628,16 +668,19 @@
       <c r="H8">
         <v>1.39</v>
       </c>
-      <c r="N8" t="s">
+      <c r="M8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
       </c>
       <c r="F9">
         <v>15</v>
@@ -649,12 +692,15 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
       </c>
       <c r="F10">
         <v>20</v>
@@ -666,12 +712,15 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -682,16 +731,19 @@
       <c r="H11">
         <v>4.1234000000000002</v>
       </c>
-      <c r="N11" t="s">
+      <c r="M11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
       </c>
       <c r="F12">
         <v>7</v>
@@ -703,12 +755,15 @@
         <v>4.8583999999999996</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
       </c>
       <c r="F13">
         <v>9</v>
@@ -720,12 +775,15 @@
         <v>5.7457000000000003</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
       </c>
       <c r="F14">
         <v>10</v>
@@ -737,12 +795,15 @@
         <v>6.0945999999999998</v>
       </c>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
       </c>
       <c r="F15">
         <v>5</v>
@@ -754,12 +815,15 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
       </c>
       <c r="F16">
         <v>7</v>
@@ -773,12 +837,15 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
       </c>
       <c r="F17">
         <v>9</v>
@@ -790,12 +857,15 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -807,12 +877,15 @@
         <v>3.1558000000000002</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
       </c>
       <c r="F19">
         <v>7</v>
@@ -824,12 +897,15 @@
         <v>3.5400999999999998</v>
       </c>
     </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
       </c>
       <c r="F20">
         <v>9</v>
@@ -841,12 +917,15 @@
         <v>4.1859000000000002</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
       </c>
       <c r="F21">
         <v>10</v>
@@ -858,12 +937,15 @@
         <v>4.4276</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
       </c>
       <c r="F22">
         <v>5</v>
@@ -874,16 +956,19 @@
       <c r="H22">
         <v>1.59</v>
       </c>
-      <c r="N22" t="s">
+      <c r="M22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
       </c>
       <c r="F23">
         <v>7</v>
@@ -894,16 +979,19 @@
       <c r="H23">
         <v>1.81</v>
       </c>
-      <c r="N23" t="s">
+      <c r="M23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
       </c>
       <c r="F24">
         <v>9</v>
@@ -915,12 +1003,15 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
       </c>
       <c r="F25">
         <v>10</v>
@@ -932,12 +1023,15 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
       </c>
       <c r="F26">
         <v>5</v>
@@ -948,16 +1042,19 @@
       <c r="H26">
         <v>4.04</v>
       </c>
-      <c r="N26" t="s">
+      <c r="M26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
       </c>
       <c r="F27">
         <v>6</v>
@@ -969,12 +1066,15 @@
         <v>4.41</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
       </c>
       <c r="F28">
         <v>8</v>
@@ -986,12 +1086,15 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
       </c>
       <c r="F29">
         <v>5</v>
@@ -1002,16 +1105,19 @@
       <c r="H29">
         <v>2.04</v>
       </c>
-      <c r="N29" t="s">
+      <c r="M29" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
       </c>
       <c r="F30">
         <v>6</v>
@@ -1022,16 +1128,19 @@
       <c r="H30">
         <v>2.2799999999999998</v>
       </c>
-      <c r="N30" t="s">
+      <c r="M30" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
       </c>
       <c r="F31">
         <v>8</v>
@@ -1047,8 +1156,8 @@
   <mergeCells count="4">
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="C1:F1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="I1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1057,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:N16"/>
+  <dimension ref="C1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1070,81 +1179,79 @@
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" t="s">
-        <v>13</v>
-      </c>
       <c r="M2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -1152,13 +1259,34 @@
       <c r="G3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3">
+        <v>191</v>
+      </c>
+      <c r="J3">
+        <v>180</v>
+      </c>
+      <c r="K3">
+        <v>25755</v>
+      </c>
+      <c r="L3">
+        <v>1.69</v>
+      </c>
+      <c r="M3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -1166,13 +1294,31 @@
       <c r="G4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4">
+        <v>685</v>
+      </c>
+      <c r="J4">
+        <v>706</v>
+      </c>
+      <c r="K4">
+        <v>26836</v>
+      </c>
+      <c r="L4">
+        <v>65.63</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
       </c>
       <c r="F5">
         <v>15</v>
@@ -1180,13 +1326,31 @@
       <c r="G5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5">
+        <v>1515</v>
+      </c>
+      <c r="J5">
+        <v>1546</v>
+      </c>
+      <c r="K5">
+        <v>16798</v>
+      </c>
+      <c r="L5">
+        <v>39.64</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
       <c r="F6">
         <v>20</v>
@@ -1194,130 +1358,195 @@
       <c r="G6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6">
+        <v>2670</v>
+      </c>
+      <c r="J6">
+        <v>2711</v>
+      </c>
+      <c r="K6">
+        <v>10323</v>
+      </c>
+      <c r="L6">
+        <v>202.94</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
       </c>
       <c r="F7">
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="2">
+        <v>192</v>
+      </c>
+      <c r="J7">
+        <v>200</v>
+      </c>
+      <c r="K7">
+        <v>3525</v>
+      </c>
+      <c r="L7">
+        <v>42.64</v>
+      </c>
+      <c r="M7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
       </c>
       <c r="F8">
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8">
+        <v>15.68</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
       </c>
       <c r="F9">
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
       </c>
       <c r="F10">
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
       </c>
       <c r="F11">
         <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
       </c>
       <c r="F12">
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
       </c>
       <c r="F13">
         <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
       </c>
       <c r="F14">
         <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/stats/experimentation.xlsx
+++ b/stats/experimentation.xlsx
@@ -1169,7 +1169,7 @@
   <dimension ref="C1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/stats/experimentation.xlsx
+++ b/stats/experimentation.xlsx
@@ -457,7 +457,7 @@
   <dimension ref="C1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:L31"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,7 +548,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>1.9938</v>
+        <v>1.9937199999999999</v>
       </c>
       <c r="I3">
         <v>131</v>
@@ -557,10 +557,10 @@
         <v>140</v>
       </c>
       <c r="K3">
-        <v>22125</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>3.65</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="M3" t="s">
         <v>4</v>
@@ -1169,14 +1169,14 @@
   <dimension ref="C1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>

--- a/stats/experimentation.xlsx
+++ b/stats/experimentation.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2020 - Projects\Github\AMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ngeluz\Desktop\Github\BPP\AMPL\stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FA80917-9195-4631-AEB5-9B012B953529}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10695" windowHeight="7035" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2D packing" sheetId="1" r:id="rId1"/>
@@ -129,7 +130,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -453,29 +454,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I1:L1048576"/>
+      <selection activeCell="I2" sqref="I1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
@@ -496,7 +497,7 @@
       </c>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>16</v>
       </c>
@@ -531,7 +532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -566,7 +567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -601,7 +602,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -621,7 +622,7 @@
         <v>3.29</v>
       </c>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -641,7 +642,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -661,7 +662,7 @@
         <v>1.0033399999999999</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -693,7 +694,7 @@
         <v>59.98</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -713,7 +714,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -733,7 +734,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>6</v>
       </c>
@@ -753,7 +754,7 @@
         <v>4.1234000000000002</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>6</v>
       </c>
@@ -773,7 +774,7 @@
         <v>4.8583999999999996</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -793,7 +794,7 @@
         <v>5.7457000000000003</v>
       </c>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>6</v>
       </c>
@@ -813,7 +814,7 @@
         <v>6.0945999999999998</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>6</v>
       </c>
@@ -833,7 +834,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>6</v>
       </c>
@@ -855,7 +856,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>6</v>
       </c>
@@ -875,7 +876,7 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>7</v>
       </c>
@@ -895,7 +896,7 @@
         <v>3.1558000000000002</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>7</v>
       </c>
@@ -915,7 +916,7 @@
         <v>3.5400999999999998</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>7</v>
       </c>
@@ -935,7 +936,7 @@
         <v>4.1859000000000002</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>7</v>
       </c>
@@ -955,7 +956,7 @@
         <v>4.4276</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>7</v>
       </c>
@@ -975,7 +976,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>7</v>
       </c>
@@ -995,7 +996,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>7</v>
       </c>
@@ -1015,7 +1016,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>7</v>
       </c>
@@ -1035,7 +1036,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>8</v>
       </c>
@@ -1055,7 +1056,7 @@
         <v>4.04</v>
       </c>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>8</v>
       </c>
@@ -1075,7 +1076,7 @@
         <v>4.41</v>
       </c>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>8</v>
       </c>
@@ -1095,7 +1096,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>8</v>
       </c>
@@ -1115,7 +1116,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>8</v>
       </c>
@@ -1135,7 +1136,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>8</v>
       </c>
@@ -1168,29 +1169,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
@@ -1211,7 +1212,7 @@
       </c>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>16</v>
       </c>
@@ -1246,7 +1247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -1281,7 +1282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>11</v>
       </c>
@@ -1313,7 +1314,7 @@
         <v>65.63</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -1345,7 +1346,7 @@
         <v>39.64</v>
       </c>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -1377,7 +1378,7 @@
         <v>202.94</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -1412,7 +1413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -1435,7 +1436,7 @@
         <v>15.68</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -1452,7 +1453,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>11</v>
       </c>
@@ -1469,11 +1470,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.3">
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G19" s="2"/>
     </row>
   </sheetData>
